--- a/JavaApplication19/src/excel/Suministros.xlsx
+++ b/JavaApplication19/src/excel/Suministros.xlsx
@@ -1,26 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN OFFICIAL\ADMINISTRACIÒN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD677B4C-5643-47B5-A423-3599BC4F8BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{88831E14-D12B-44DF-A8A6-3EE94BB95924}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>CONTACTO</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>SELLAMILK</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>FUSIBLES</t>
+  </si>
+  <si>
+    <t>LA BICLA</t>
+  </si>
+  <si>
+    <t>FRANCISCO MACIEL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO CABRERA</t>
+  </si>
+  <si>
+    <t>ARAGON BIKES</t>
+  </si>
+  <si>
+    <t>UBICACIÒN</t>
+  </si>
+  <si>
+    <t>REFACCIONES</t>
+  </si>
+  <si>
+    <t>CIUDAD DE MEXICO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +81,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +117,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03DF7B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,8 +171,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="517709" cy="381000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="12 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7DB1E5-07A9-4BB4-B123-3DA8AF3FF0C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257174" y="0"/>
+          <a:ext cx="517709" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +238,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +250,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +297,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +349,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +517,653 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F673D81E-258F-4373-B776-48FF0834D300}">
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5534777275</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3313673109</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3411081855</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5521587981</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>